--- a/xlsx/民权_intext.xlsx
+++ b/xlsx/民权_intext.xlsx
@@ -29,7 +29,7 @@
     <t>公民权利</t>
   </si>
   <si>
-    <t>政策_政策_美國_民权</t>
+    <t>政策_政策_美国_民权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民權運動</t>
+    <t>民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%9D%83%E5%8E%BF</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%9A%A7%E9%81%93</t>
   </si>
   <si>
-    <t>民權隧道</t>
+    <t>民权隧道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%9D%83%E8%A1%97%E9%81%93</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E8%B7%AF</t>
   </si>
   <si>
-    <t>民權路</t>
+    <t>民权路</t>
   </si>
 </sst>
 </file>
